--- a/client/src/client/assets/templates/question_import.xlsx
+++ b/client/src/client/assets/templates/question_import.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>sc</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Six</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -401,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -429,10 +435,13 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -451,23 +460,26 @@
       <c r="F2">
         <v>3</v>
       </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="F4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="F5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>11</v>
       </c>
